--- a/Línea Base/PVCU/Linea_Base_1/Gestion/PVCU-CP.xlsx
+++ b/Línea Base/PVCU/Linea_Base_1/Gestion/PVCU-CP.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="e53+3HUeMl73wt3RnyobrkIHNI9MHlIac9L+rzaAg1w="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Q58Mi61LQ+l2xyxF2YvHuz42grRfa5ew1JugJJvf2+Q="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="141">
   <si>
     <t>Cronograma del proyecto</t>
   </si>
@@ -168,6 +168,18 @@
     <t>PVCU-HU3.2.docx</t>
   </si>
   <si>
+    <t>HU3.3</t>
+  </si>
+  <si>
+    <t>PVCU-HU3.3.docx</t>
+  </si>
+  <si>
+    <t>HU3.4</t>
+  </si>
+  <si>
+    <t>PVCU-HU3.4.docx</t>
+  </si>
+  <si>
     <t>Elaboración de Historias de Usuario de Épica 4</t>
   </si>
   <si>
@@ -177,60 +189,66 @@
     <t>PVCU-HU4.1.docx</t>
   </si>
   <si>
+    <t>HU4.2</t>
+  </si>
+  <si>
+    <t>PVCU-HU4.2.docx</t>
+  </si>
+  <si>
+    <t>HU4.3</t>
+  </si>
+  <si>
+    <t>PVCU-HU4.3.docx</t>
+  </si>
+  <si>
+    <t>Elaboración de Historias de Usuario de Épica 5</t>
+  </si>
+  <si>
+    <t>HU5.1</t>
+  </si>
+  <si>
+    <t>PVCU-HU5.1.docx</t>
+  </si>
+  <si>
     <t>Patricio / Diseñador UX</t>
   </si>
   <si>
-    <t>HU4.2</t>
-  </si>
-  <si>
-    <t>PVCU-HU4.2.docx</t>
-  </si>
-  <si>
-    <t>HU4.3</t>
-  </si>
-  <si>
-    <t>PVCU-HU4.3.docx</t>
-  </si>
-  <si>
-    <t>Elaboración de Historias de Usuario de Épica 5</t>
-  </si>
-  <si>
-    <t>HU5.1</t>
-  </si>
-  <si>
-    <t>PVCU-HU5.1.docx</t>
+    <t>HU5.2</t>
+  </si>
+  <si>
+    <t>PVCU-HU5.2.docx</t>
+  </si>
+  <si>
+    <t>HU5.3</t>
+  </si>
+  <si>
+    <t>PVCU-HU5.3.docx</t>
+  </si>
+  <si>
+    <t>Elaboración de Historias de Usuario de Épica 6</t>
+  </si>
+  <si>
+    <t>HU6.1</t>
+  </si>
+  <si>
+    <t>PVCU-HU6.1.docx</t>
   </si>
   <si>
     <t>Espinoza / Arquitecto</t>
   </si>
   <si>
-    <t>HU5.2</t>
-  </si>
-  <si>
-    <t>PVCU-HU5.2.docx</t>
-  </si>
-  <si>
-    <t>HU5.3</t>
-  </si>
-  <si>
-    <t>PVCU-HU5.3.docx</t>
-  </si>
-  <si>
-    <t>Elaboración de Historias de Usuario de Épica 6</t>
-  </si>
-  <si>
-    <t>HU6.1</t>
-  </si>
-  <si>
-    <t>PVCU-HU6.1.docx</t>
-  </si>
-  <si>
     <t>HU6.2</t>
   </si>
   <si>
     <t>PVCU-HU6.2.docx</t>
   </si>
   <si>
+    <t>HU6.3</t>
+  </si>
+  <si>
+    <t>PVCU-HU6.3.docx</t>
+  </si>
+  <si>
     <t>Elaboración de Historias de Usuario de Épica 7</t>
   </si>
   <si>
@@ -246,10 +264,25 @@
     <t>PVCU-HU7.2.docx</t>
   </si>
   <si>
-    <t>HU7.3</t>
-  </si>
-  <si>
-    <t>PVCU-HU7.3.docx</t>
+    <t>Elaboración de Historias de Usuario de Épica 8</t>
+  </si>
+  <si>
+    <t>HU8.1</t>
+  </si>
+  <si>
+    <t>PVCU-HU8.1.docx</t>
+  </si>
+  <si>
+    <t>HU8.2</t>
+  </si>
+  <si>
+    <t>PVCU-HU8.2.docx</t>
+  </si>
+  <si>
+    <t>HU8.3</t>
+  </si>
+  <si>
+    <t>PVCU-HU8.3.docx</t>
   </si>
   <si>
     <t>QA</t>
@@ -321,22 +354,13 @@
     <t>Patricio / Diseñador UI</t>
   </si>
   <si>
-    <t>Diseño de la Experiencia de Usuario (UX)</t>
-  </si>
-  <si>
-    <t>Documento de Ia UX</t>
-  </si>
-  <si>
-    <t>PVCU-DUX.docx</t>
-  </si>
-  <si>
     <t>Elaboración de la Guía de Estilos</t>
   </si>
   <si>
-    <t>Documento de la Guía de Estilos</t>
-  </si>
-  <si>
-    <t>PVCU-DGE.docx</t>
+    <t>Guía de Estilos</t>
+  </si>
+  <si>
+    <t>PVCU-GE.docx</t>
   </si>
   <si>
     <t>Reporte de Segundo QA</t>
@@ -354,43 +378,31 @@
     <t>Hito 2: Diseño</t>
   </si>
   <si>
-    <t>Implementación de Base de Datos</t>
-  </si>
-  <si>
-    <t>Madrid, Espinoza / Programador Back</t>
-  </si>
-  <si>
-    <t>Implementación de Historias de Usuario de Épica 1</t>
-  </si>
-  <si>
-    <t>Mantilla/Programador Front</t>
-  </si>
-  <si>
-    <t>Implementación de Historias de Usuario de Épica 2</t>
-  </si>
-  <si>
-    <t>Patricio/Programador Front</t>
-  </si>
-  <si>
-    <t>Implementación de Historias de Usuario de Épica 3</t>
-  </si>
-  <si>
-    <t>Jara/Programador Front</t>
-  </si>
-  <si>
-    <t>Implementación de Historias de Usuario de Épica 4</t>
-  </si>
-  <si>
-    <t>Dávila/Programador Front</t>
-  </si>
-  <si>
-    <t>Implementación de Historias de Usuario de Épica 5</t>
-  </si>
-  <si>
-    <t>Implementación de Historias de Usuario de Épica 6</t>
-  </si>
-  <si>
-    <t>Implementación de Historias de Usuario de Épica 7</t>
+    <t>Código fuente PVCU</t>
+  </si>
+  <si>
+    <t>Jara/ Programador Frontend                      Madrid/ Programador Backend</t>
+  </si>
+  <si>
+    <t>Patricio/ Programador Frontend                Espinoza/ Programador Backend</t>
+  </si>
+  <si>
+    <t>Dávila/ Programador Frontend                  Madrid/ Programador Backend</t>
+  </si>
+  <si>
+    <t>Mantilla/ Progrmador Frontend                Espinoza/ Programador Backend</t>
+  </si>
+  <si>
+    <t>Jara/ Programador Frontend                      Espinoza/ Programador Backend</t>
+  </si>
+  <si>
+    <t>Patricio/ Programador Frontend                Madrid/ Programador Backend</t>
+  </si>
+  <si>
+    <t>Dávila/ Programador Frontend                 Espinoza/ Programador Backend</t>
+  </si>
+  <si>
+    <t>Mantilla/ Progrmador Frontend                Madrid/ Programador Backend</t>
   </si>
   <si>
     <t>Realizar Pruebas de Software</t>
@@ -405,7 +417,19 @@
     <t>Dávila/Tester</t>
   </si>
   <si>
-    <t>Elaborar el Acta de Cierre del Proyecto</t>
+    <t>Elaboración del Manual de Usuario</t>
+  </si>
+  <si>
+    <t>Manual de Usuario</t>
+  </si>
+  <si>
+    <t>PVCU-MU.docx</t>
+  </si>
+  <si>
+    <t>Reporte del Tercer Sprint</t>
+  </si>
+  <si>
+    <t>Elaboración del Acta de Cierre del Proyecto</t>
   </si>
   <si>
     <t>Acta de Cierre del Proyecto</t>
@@ -426,7 +450,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -482,11 +506,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -509,8 +528,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -520,7 +539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -661,19 +680,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -723,78 +734,73 @@
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -804,19 +810,60 @@
     </xf>
     <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -825,23 +872,14 @@
     </xf>
     <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -849,14 +887,17 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -870,6 +911,7 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="2" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1245,7 +1287,7 @@
         <v>45536.0</v>
       </c>
       <c r="H11" s="19">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="12">
@@ -1268,7 +1310,7 @@
         <v>45536.0</v>
       </c>
       <c r="H12" s="19">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="13">
@@ -1291,7 +1333,7 @@
         <v>45536.0</v>
       </c>
       <c r="H13" s="21">
-        <v>75.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="14">
@@ -1314,7 +1356,7 @@
         <v>45536.0</v>
       </c>
       <c r="H14" s="21">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="15">
@@ -1324,32 +1366,36 @@
       <c r="C15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="26">
         <v>45536.0</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="26">
         <v>45542.0</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="19">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" s="29"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="19">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" s="23" t="s">
@@ -1358,28 +1404,32 @@
       <c r="C17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="19">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="B18" s="29"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="19">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="23" t="s">
@@ -1388,791 +1438,881 @@
       <c r="C19" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="19">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="29"/>
       <c r="C20" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="28"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="19">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="E21" s="31"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="27"/>
+      <c r="C22" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="D22" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="31"/>
-      <c r="C22" s="24" t="s">
+      <c r="E22" s="31"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="C23" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="29"/>
-      <c r="C23" s="24" t="s">
+      <c r="D23" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="E23" s="31"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="29"/>
+      <c r="C24" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="28"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="23" t="s">
+      <c r="D24" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="E24" s="31"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="27"/>
+      <c r="C25" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D25" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="28"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="31"/>
-      <c r="C25" s="24" t="s">
+      <c r="C26" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D26" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="28"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="29"/>
-      <c r="C26" s="24" t="s">
+      <c r="E26" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="29"/>
+      <c r="C27" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="28"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="23" t="s">
+      <c r="D27" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="E27" s="31"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="27"/>
+      <c r="C28" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D28" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="28"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="29"/>
-      <c r="C28" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="19">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="B29" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="E29" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="29"/>
+      <c r="C30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="28"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="31"/>
-      <c r="C30" s="24" t="s">
+      <c r="D30" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="27"/>
+      <c r="C31" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="29"/>
-      <c r="C31" s="24" t="s">
+      <c r="D31" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="28"/>
+      <c r="H31" s="19">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="D32" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="E32" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="27"/>
+      <c r="C33" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="D33" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="29"/>
+      <c r="C35" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="27"/>
+      <c r="C36" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F37" s="35">
         <v>45542.0</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G37" s="35">
         <v>45549.0</v>
       </c>
-      <c r="H32" s="28"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="42" t="s">
+      <c r="H37" s="19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F38" s="40">
         <v>45549.0</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G38" s="40">
         <v>45555.0</v>
       </c>
-      <c r="H33" s="44"/>
-      <c r="I33" s="45"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="47">
+      <c r="H38" s="41"/>
+      <c r="I38" s="42"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="44">
         <v>45189.0</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="49"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="34" t="s">
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="51">
+      <c r="F40" s="50">
+        <v>45549.0</v>
+      </c>
+      <c r="G40" s="50">
         <v>45556.0</v>
       </c>
-      <c r="G35" s="51">
-        <v>45564.0</v>
-      </c>
-      <c r="H35" s="52"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="37" t="s">
+      <c r="H40" s="51"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="55"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="59">
+        <v>45549.0</v>
+      </c>
+      <c r="G42" s="59">
+        <v>45563.0</v>
+      </c>
+      <c r="H42" s="60"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="60"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="60"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="59">
+        <v>45563.0</v>
+      </c>
+      <c r="G45" s="59">
+        <v>45570.0</v>
+      </c>
+      <c r="H45" s="60"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="B46" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="28"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="37" t="s">
+      <c r="C46" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="60"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="B47" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="27">
-        <v>45564.0</v>
-      </c>
-      <c r="G37" s="27">
-        <v>45572.0</v>
-      </c>
-      <c r="H37" s="28"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="28"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="28"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="28"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="27">
-        <v>45572.0</v>
-      </c>
-      <c r="G41" s="27">
-        <v>45579.0</v>
-      </c>
-      <c r="H41" s="28"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="28"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="42" t="s">
+      <c r="C47" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="43">
-        <v>45579.0</v>
-      </c>
-      <c r="G43" s="43">
+      <c r="F47" s="66">
+        <v>45570.0</v>
+      </c>
+      <c r="G47" s="66">
         <v>45589.0</v>
       </c>
-      <c r="H43" s="28"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="56">
+      <c r="H47" s="60"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="B48" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="68">
         <v>45223.0</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="58"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="61" t="s">
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="70"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="B49" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" s="63">
-        <v>45579.0</v>
-      </c>
-      <c r="G45" s="38">
-        <v>45604.0</v>
-      </c>
-      <c r="H45" s="28"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="61" t="s">
+      <c r="E49" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="74">
+        <v>45570.0</v>
+      </c>
+      <c r="G49" s="75">
+        <v>45590.0</v>
+      </c>
+      <c r="H49" s="60"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="60"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="B51" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46" s="65">
-        <v>45579.0</v>
-      </c>
-      <c r="G46" s="66">
-        <v>45586.0</v>
-      </c>
-      <c r="H46" s="28"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="29"/>
-      <c r="C47" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="61" t="s">
+      <c r="E51" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="60"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="60"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="B53" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="28"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="28"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="29"/>
-      <c r="C49" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="28"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="28"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="29"/>
-      <c r="C51" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="28"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="28"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="31"/>
-      <c r="C53" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="33"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="28"/>
+      <c r="E53" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="60"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="B54" s="29"/>
-      <c r="C54" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="30"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="28"/>
+      <c r="H54" s="60"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="61" t="s">
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="60"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="60"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="B57" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" s="65">
-        <v>45586.0</v>
-      </c>
-      <c r="G55" s="66">
+      <c r="E57" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="60"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="60"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="B59" s="27"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="60"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="B60" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="74">
+        <v>45590.0</v>
+      </c>
+      <c r="G60" s="75">
         <v>45604.0</v>
       </c>
-      <c r="H55" s="28"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="31"/>
-      <c r="C56" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="28"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="29"/>
-      <c r="C57" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="28"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="28"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="29"/>
-      <c r="C59" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="28"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="28"/>
+      <c r="H60" s="60"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="31"/>
-      <c r="C61" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="D61" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="33"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="28"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="60"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="29"/>
-      <c r="C62" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="30"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
-      <c r="H62" s="28"/>
+      <c r="H62" s="60"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="37" t="s">
+      <c r="B63" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="60"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="60"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="60"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="B66" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="60"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="B67" s="27"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="60"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="B68" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="F63" s="63">
-        <v>45566.0</v>
-      </c>
-      <c r="G63" s="38">
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="60"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="60"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="60"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="B71" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" s="66">
+        <v>45597.0</v>
+      </c>
+      <c r="G71" s="78">
         <v>45604.0</v>
       </c>
-      <c r="H63" s="28"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E64" s="70" t="s">
+      <c r="H71" s="60"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="B72" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="F64" s="43">
+      <c r="F72" s="66">
+        <v>45597.0</v>
+      </c>
+      <c r="G72" s="66">
         <v>45604.0</v>
       </c>
-      <c r="G64" s="43">
+      <c r="H72" s="60"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="B73" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="66">
+        <v>45604.0</v>
+      </c>
+      <c r="G73" s="66">
         <v>45607.0</v>
       </c>
-      <c r="H64" s="28"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="71" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="72" t="s">
+      <c r="H73" s="60"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="B74" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="73">
+      <c r="F74" s="83">
         <v>45607.0</v>
       </c>
-      <c r="G65" s="73">
+      <c r="G74" s="83">
         <v>45610.0</v>
       </c>
-      <c r="H65" s="44"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C66" s="74">
+      <c r="H74" s="84"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="B75" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="85">
         <v>45610.0</v>
       </c>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="46"/>
+    </row>
     <row r="76" ht="15.75" customHeight="1"/>
     <row r="77" ht="15.75" customHeight="1"/>
     <row r="78" ht="15.75" customHeight="1"/>
@@ -3109,10 +3249,21 @@
     <row r="1009" ht="15.75" customHeight="1"/>
     <row r="1010" ht="15.75" customHeight="1"/>
     <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
+    <row r="1017" ht="15.75" customHeight="1"/>
+    <row r="1018" ht="15.75" customHeight="1"/>
+    <row r="1019" ht="15.75" customHeight="1"/>
+    <row r="1020" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="75">
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F15:F36"/>
+    <mergeCell ref="G15:G36"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -3127,46 +3278,63 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="E26:E28"/>
     <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F15:F31"/>
-    <mergeCell ref="G15:G31"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F55:F62"/>
-    <mergeCell ref="G55:G62"/>
-    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="F60:F70"/>
+    <mergeCell ref="G60:G70"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F59"/>
+    <mergeCell ref="G49:G59"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
     <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="F46:F54"/>
-    <mergeCell ref="G46:G54"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G2"/>

--- a/Línea Base/PVCU/Linea_Base_1/Gestion/PVCU-CP.xlsx
+++ b/Línea Base/PVCU/Linea_Base_1/Gestion/PVCU-CP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="165">
   <si>
     <t>Cronograma del proyecto</t>
   </si>
@@ -117,7 +117,7 @@
     <t>Elaboración de Historias de Usuario de Épica 1</t>
   </si>
   <si>
-    <t>HU1.1</t>
+    <t>Historia de Usuario 1 de la Épica 1</t>
   </si>
   <si>
     <t>PVCU-HU1.1.docx</t>
@@ -126,7 +126,7 @@
     <t>Madrid / DBA</t>
   </si>
   <si>
-    <t>HU1.2</t>
+    <t>Historia de Usuario 2 de la Épica 1</t>
   </si>
   <si>
     <t>PVCU-HU1.2.docx</t>
@@ -135,7 +135,7 @@
     <t>Elaboración de Historias de Usuario de Épica 2</t>
   </si>
   <si>
-    <t>HU2.1</t>
+    <t>Historia de Usuario 1 de la Épica 2</t>
   </si>
   <si>
     <t>PVCU-HU2.1.docx</t>
@@ -144,7 +144,7 @@
     <t>Davila / Analista QA</t>
   </si>
   <si>
-    <t>HU2.2</t>
+    <t>Historia de Usuario 2 de la Épica 2</t>
   </si>
   <si>
     <t>PVCU-HU2.2.docx</t>
@@ -153,7 +153,7 @@
     <t>Elaboración de Historias de Usuario de Épica 3</t>
   </si>
   <si>
-    <t>HU3.1</t>
+    <t>Historia de Usuario 1 de la Épica 3</t>
   </si>
   <si>
     <t>PVCU-HU3.1.docx</t>
@@ -162,19 +162,19 @@
     <t>Jara / Programador Front</t>
   </si>
   <si>
-    <t>HU3.2</t>
+    <t>Historia de Usuario 2 de la Épica 3</t>
   </si>
   <si>
     <t>PVCU-HU3.2.docx</t>
   </si>
   <si>
-    <t>HU3.3</t>
+    <t>Historia de Usuario 3 de la Épica 3</t>
   </si>
   <si>
     <t>PVCU-HU3.3.docx</t>
   </si>
   <si>
-    <t>HU3.4</t>
+    <t>Historia de Usuario 4 de la Épica 3</t>
   </si>
   <si>
     <t>PVCU-HU3.4.docx</t>
@@ -183,19 +183,19 @@
     <t>Elaboración de Historias de Usuario de Épica 4</t>
   </si>
   <si>
-    <t>HU4.1</t>
+    <t>Historia de Usuario 1 de la Épica 4</t>
   </si>
   <si>
     <t>PVCU-HU4.1.docx</t>
   </si>
   <si>
-    <t>HU4.2</t>
+    <t>Historia de Usuario 2 de la Épica 4</t>
   </si>
   <si>
     <t>PVCU-HU4.2.docx</t>
   </si>
   <si>
-    <t>HU4.3</t>
+    <t>Historia de Usuario 3 de la Épica 4</t>
   </si>
   <si>
     <t>PVCU-HU4.3.docx</t>
@@ -204,7 +204,7 @@
     <t>Elaboración de Historias de Usuario de Épica 5</t>
   </si>
   <si>
-    <t>HU5.1</t>
+    <t>Historia de Usuario 1 de la Épica 5</t>
   </si>
   <si>
     <t>PVCU-HU5.1.docx</t>
@@ -213,13 +213,13 @@
     <t>Patricio / Diseñador UX</t>
   </si>
   <si>
-    <t>HU5.2</t>
+    <t>Historia de Usuario 2 de la Épica 5</t>
   </si>
   <si>
     <t>PVCU-HU5.2.docx</t>
   </si>
   <si>
-    <t>HU5.3</t>
+    <t>Historia de Usuario 3 de la Épica 5</t>
   </si>
   <si>
     <t>PVCU-HU5.3.docx</t>
@@ -228,7 +228,7 @@
     <t>Elaboración de Historias de Usuario de Épica 6</t>
   </si>
   <si>
-    <t>HU6.1</t>
+    <t>Historia de Usuario 1 de la Épica 6</t>
   </si>
   <si>
     <t>PVCU-HU6.1.docx</t>
@@ -237,13 +237,13 @@
     <t>Espinoza / Arquitecto</t>
   </si>
   <si>
-    <t>HU6.2</t>
+    <t>Historia de Usuario 2 de la Épica 6</t>
   </si>
   <si>
     <t>PVCU-HU6.2.docx</t>
   </si>
   <si>
-    <t>HU6.3</t>
+    <t>Historia de Usuario 3 de la Épica 6</t>
   </si>
   <si>
     <t>PVCU-HU6.3.docx</t>
@@ -252,13 +252,13 @@
     <t>Elaboración de Historias de Usuario de Épica 7</t>
   </si>
   <si>
-    <t>HU7.1</t>
+    <t>Historia de Usuario 1 de la Épica 7</t>
   </si>
   <si>
     <t>PVCU-HU7.1.docx</t>
   </si>
   <si>
-    <t>HU7.2</t>
+    <t>Historia de Usuario 2 de la Épica 7</t>
   </si>
   <si>
     <t>PVCU-HU7.2.docx</t>
@@ -267,19 +267,19 @@
     <t>Elaboración de Historias de Usuario de Épica 8</t>
   </si>
   <si>
-    <t>HU8.1</t>
+    <t>Historia de Usuario 1 de la Épica 8</t>
   </si>
   <si>
     <t>PVCU-HU8.1.docx</t>
   </si>
   <si>
-    <t>HU8.2</t>
+    <t>Historia de Usuario 2 de la Épica 8</t>
   </si>
   <si>
     <t>PVCU-HU8.2.docx</t>
   </si>
   <si>
-    <t>HU8.3</t>
+    <t>Historia de Usuario 3 de la Épica 8</t>
   </si>
   <si>
     <t>PVCU-HU8.3.docx</t>
@@ -288,10 +288,10 @@
     <t>QA</t>
   </si>
   <si>
-    <t>Reporte de Primer QA</t>
-  </si>
-  <si>
-    <t>PVCU-RPQA.docx</t>
+    <t>Reporte de QA 1</t>
+  </si>
+  <si>
+    <t>PVCU-RQA1.docx</t>
   </si>
   <si>
     <t>Realizar Sprint Retrospective</t>
@@ -309,13 +309,13 @@
     <t>Elaboracion de la Logica de Negocios</t>
   </si>
   <si>
-    <t>Documento de Logica de Negocio</t>
+    <t>Documento de Lógica de Negocio</t>
   </si>
   <si>
     <t>PVCU-DLN.docx</t>
   </si>
   <si>
-    <t>Elaboracion del diseño de arquitectura</t>
+    <t>Elaboracion de la Arquitectura de Software</t>
   </si>
   <si>
     <t>Documento de la Arquitectura de Software</t>
@@ -324,7 +324,7 @@
     <t>PVCU-DAS.docx</t>
   </si>
   <si>
-    <t>Elaboracion del modelado de clases</t>
+    <t>Elaboracion del Modelado de Clases</t>
   </si>
   <si>
     <t>Documento del Modelado de Clases</t>
@@ -333,7 +333,7 @@
     <t>PVCU-DMC.docx</t>
   </si>
   <si>
-    <t>Elaboracion de modelado de base de datos</t>
+    <t>Elaboracion de Modelado de Base de Datos</t>
   </si>
   <si>
     <t>Documento del Modelado de Base de Datos</t>
@@ -345,7 +345,7 @@
     <t>Diseño de Interfaz de Usuario (UI)</t>
   </si>
   <si>
-    <t>Docuemento de la UI</t>
+    <t>Documento de la User Interface</t>
   </si>
   <si>
     <t>PVCU-DUI.docx</t>
@@ -363,10 +363,10 @@
     <t>PVCU-GE.docx</t>
   </si>
   <si>
-    <t>Reporte de Segundo QA</t>
-  </si>
-  <si>
-    <t>PVCU-RSQA.docx</t>
+    <t>Reporte de QA 2</t>
+  </si>
+  <si>
+    <t>PVCU-RQA2.docx</t>
   </si>
   <si>
     <t>Reporte del Segundo Sprint</t>
@@ -378,30 +378,99 @@
     <t>Hito 2: Diseño</t>
   </si>
   <si>
-    <t>Código fuente PVCU</t>
+    <t>Desarrollo de Épica 1</t>
+  </si>
+  <si>
+    <t>Épica 1</t>
+  </si>
+  <si>
+    <t>//E1</t>
   </si>
   <si>
     <t>Jara/ Programador Frontend                      Madrid/ Programador Backend</t>
   </si>
   <si>
+    <t>Desarrollo de Épica 2</t>
+  </si>
+  <si>
+    <t>Épica 2</t>
+  </si>
+  <si>
+    <t>//E2</t>
+  </si>
+  <si>
     <t>Patricio/ Programador Frontend                Espinoza/ Programador Backend</t>
   </si>
   <si>
+    <t>Desarrollo de Épica 3</t>
+  </si>
+  <si>
+    <t>Épica 3</t>
+  </si>
+  <si>
+    <t>//E3</t>
+  </si>
+  <si>
     <t>Dávila/ Programador Frontend                  Madrid/ Programador Backend</t>
   </si>
   <si>
+    <t>Desarrollo de Épica 4</t>
+  </si>
+  <si>
+    <t>Épica 4</t>
+  </si>
+  <si>
+    <t>//E4</t>
+  </si>
+  <si>
     <t>Mantilla/ Progrmador Frontend                Espinoza/ Programador Backend</t>
   </si>
   <si>
+    <t>Desarrollo de Épica 5</t>
+  </si>
+  <si>
+    <t>Épica 5</t>
+  </si>
+  <si>
+    <t>//E5</t>
+  </si>
+  <si>
     <t>Jara/ Programador Frontend                      Espinoza/ Programador Backend</t>
   </si>
   <si>
+    <t>Desarrollo de Épica 6</t>
+  </si>
+  <si>
+    <t>Épica 6</t>
+  </si>
+  <si>
+    <t>//E6</t>
+  </si>
+  <si>
     <t>Patricio/ Programador Frontend                Madrid/ Programador Backend</t>
   </si>
   <si>
+    <t>Desarrollo de Épica 7</t>
+  </si>
+  <si>
+    <t>Épica 7</t>
+  </si>
+  <si>
+    <t>//E7</t>
+  </si>
+  <si>
     <t>Dávila/ Programador Frontend                 Espinoza/ Programador Backend</t>
   </si>
   <si>
+    <t>Desarrollo de Épica 8</t>
+  </si>
+  <si>
+    <t>Épica 8</t>
+  </si>
+  <si>
+    <t>//E8</t>
+  </si>
+  <si>
     <t>Mantilla/ Progrmador Frontend                Madrid/ Programador Backend</t>
   </si>
   <si>
@@ -427,6 +496,9 @@
   </si>
   <si>
     <t>Reporte del Tercer Sprint</t>
+  </si>
+  <si>
+    <t>PVCU-RTS.docx</t>
   </si>
   <si>
     <t>Elaboración del Acta de Cierre del Proyecto</t>
@@ -528,8 +600,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -684,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -756,7 +828,7 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -771,9 +843,6 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -783,22 +852,19 @@
     <xf borderId="3" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -810,20 +876,17 @@
     </xf>
     <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -832,10 +895,10 @@
     <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -846,8 +909,8 @@
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -868,7 +931,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="12" fillId="2" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1499,7 +1562,7 @@
       <c r="B23" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="20" t="s">
@@ -1514,7 +1577,7 @@
     </row>
     <row r="24">
       <c r="B24" s="29"/>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="24" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -1529,7 +1592,7 @@
     </row>
     <row r="25">
       <c r="B25" s="27"/>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="24" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -1546,7 +1609,7 @@
       <c r="B26" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="24" t="s">
         <v>62</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -1563,7 +1626,7 @@
     </row>
     <row r="27">
       <c r="B27" s="29"/>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="24" t="s">
         <v>65</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -1578,7 +1641,7 @@
     </row>
     <row r="28">
       <c r="B28" s="27"/>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -1595,7 +1658,7 @@
       <c r="B29" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="24" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="20" t="s">
@@ -1612,7 +1675,7 @@
     </row>
     <row r="30">
       <c r="B30" s="29"/>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="24" t="s">
         <v>73</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -1627,7 +1690,7 @@
     </row>
     <row r="31">
       <c r="B31" s="27"/>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="24" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -1644,7 +1707,7 @@
       <c r="B32" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="24" t="s">
         <v>78</v>
       </c>
       <c r="D32" s="20" t="s">
@@ -1661,7 +1724,7 @@
     </row>
     <row r="33">
       <c r="B33" s="27"/>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="24" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="20" t="s">
@@ -1678,7 +1741,7 @@
       <c r="B34" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="24" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="20" t="s">
@@ -1695,7 +1758,7 @@
     </row>
     <row r="35">
       <c r="B35" s="29"/>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="24" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="20" t="s">
@@ -1710,7 +1773,7 @@
     </row>
     <row r="36">
       <c r="B36" s="27"/>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="24" t="s">
         <v>87</v>
       </c>
       <c r="D36" s="20" t="s">
@@ -1724,22 +1787,22 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>89</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="33" t="s">
         <v>91</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="34">
         <v>45542.0</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="34">
         <v>45549.0</v>
       </c>
       <c r="H37" s="19">
@@ -1747,225 +1810,227 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="40">
+      <c r="F38" s="38">
         <v>45549.0</v>
       </c>
-      <c r="G38" s="40">
+      <c r="G38" s="38">
         <v>45555.0</v>
       </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
     </row>
     <row r="39">
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="44">
-        <v>45189.0</v>
-      </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
+      <c r="C39" s="42">
+        <v>45555.0</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40">
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="50">
+      <c r="F40" s="46">
         <v>45549.0</v>
       </c>
-      <c r="G40" s="50">
+      <c r="G40" s="46">
         <v>45556.0</v>
       </c>
-      <c r="H40" s="51"/>
+      <c r="H40" s="16">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="53" t="s">
+      <c r="E41" s="17" t="s">
         <v>72</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
-      <c r="H41" s="55"/>
+      <c r="H41" s="48"/>
     </row>
     <row r="42">
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="E42" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="59">
+      <c r="F42" s="52">
         <v>45549.0</v>
       </c>
-      <c r="G42" s="59">
+      <c r="G42" s="52">
         <v>45563.0</v>
       </c>
-      <c r="H42" s="60"/>
+      <c r="H42" s="53"/>
     </row>
     <row r="43">
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="E43" s="50" t="s">
         <v>35</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
-      <c r="H43" s="60"/>
+      <c r="H43" s="53"/>
     </row>
     <row r="44">
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="58" t="s">
+      <c r="E44" s="51" t="s">
         <v>111</v>
       </c>
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
-      <c r="H44" s="60"/>
+      <c r="H44" s="53"/>
     </row>
     <row r="45">
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="58" t="s">
+      <c r="E45" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="F45" s="59">
+      <c r="F45" s="56">
         <v>45563.0</v>
       </c>
-      <c r="G45" s="59">
+      <c r="G45" s="56">
         <v>45570.0</v>
       </c>
-      <c r="H45" s="60"/>
+      <c r="H45" s="57"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="61" t="s">
+      <c r="D46" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="E46" s="54" t="s">
         <v>41</v>
       </c>
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
-      <c r="H46" s="60"/>
+      <c r="H46" s="57"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="E47" s="65" t="s">
+      <c r="E47" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="66">
+      <c r="F47" s="63">
         <v>45570.0</v>
       </c>
-      <c r="G47" s="66">
-        <v>45589.0</v>
-      </c>
-      <c r="H47" s="60"/>
+      <c r="G47" s="63">
+        <v>45577.0</v>
+      </c>
+      <c r="H47" s="57"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="68">
-        <v>45223.0</v>
-      </c>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="70"/>
+      <c r="C48" s="65">
+        <v>45577.0</v>
+      </c>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="67"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="72" t="s">
+      <c r="B49" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="73" t="s">
+      <c r="C49" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="F49" s="74">
+      <c r="D49" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="71">
         <v>45570.0</v>
       </c>
-      <c r="G49" s="75">
+      <c r="G49" s="72">
         <v>45590.0</v>
       </c>
-      <c r="H49" s="60"/>
+      <c r="H49" s="57"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="B50" s="27"/>
@@ -1974,24 +2039,24 @@
       <c r="E50" s="27"/>
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
-      <c r="H50" s="60"/>
+      <c r="H50" s="57"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="73" t="s">
-        <v>122</v>
+      <c r="B51" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="70" t="s">
+        <v>127</v>
       </c>
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
-      <c r="H51" s="60"/>
+      <c r="H51" s="57"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="B52" s="27"/>
@@ -2000,24 +2065,24 @@
       <c r="E52" s="27"/>
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
-      <c r="H52" s="60"/>
+      <c r="H52" s="57"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="73" t="s">
-        <v>123</v>
+      <c r="B53" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="70" t="s">
+        <v>131</v>
       </c>
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
-      <c r="H53" s="60"/>
+      <c r="H53" s="57"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="B54" s="29"/>
@@ -2026,7 +2091,7 @@
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="60"/>
+      <c r="H54" s="57"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="B55" s="29"/>
@@ -2035,7 +2100,7 @@
       <c r="E55" s="29"/>
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
-      <c r="H55" s="60"/>
+      <c r="H55" s="57"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="B56" s="27"/>
@@ -2044,24 +2109,24 @@
       <c r="E56" s="27"/>
       <c r="F56" s="29"/>
       <c r="G56" s="29"/>
-      <c r="H56" s="60"/>
+      <c r="H56" s="57"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="76" t="s">
-        <v>124</v>
+      <c r="B57" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="73" t="s">
+        <v>135</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="29"/>
-      <c r="H57" s="60"/>
+      <c r="H57" s="57"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="B58" s="29"/>
@@ -2070,37 +2135,37 @@
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
       <c r="G58" s="29"/>
-      <c r="H58" s="60"/>
+      <c r="H58" s="57"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="B59" s="27"/>
-      <c r="C59" s="29"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
       <c r="F59" s="29"/>
       <c r="G59" s="29"/>
-      <c r="H59" s="60"/>
+      <c r="H59" s="57"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="F60" s="74">
+      <c r="B60" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="71">
         <v>45590.0</v>
       </c>
-      <c r="G60" s="75">
+      <c r="G60" s="72">
         <v>45604.0</v>
       </c>
-      <c r="H60" s="60"/>
+      <c r="H60" s="57"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="B61" s="29"/>
@@ -2109,7 +2174,7 @@
       <c r="E61" s="29"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="60"/>
+      <c r="H61" s="57"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="B62" s="27"/>
@@ -2118,24 +2183,24 @@
       <c r="E62" s="27"/>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
-      <c r="H62" s="60"/>
+      <c r="H62" s="57"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="73" t="s">
-        <v>126</v>
+      <c r="B63" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="E63" s="70" t="s">
+        <v>143</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
-      <c r="H63" s="60"/>
+      <c r="H63" s="57"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="B64" s="29"/>
@@ -2144,7 +2209,7 @@
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
-      <c r="H64" s="60"/>
+      <c r="H64" s="57"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="B65" s="27"/>
@@ -2153,50 +2218,50 @@
       <c r="E65" s="27"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
-      <c r="H65" s="60"/>
+      <c r="H65" s="57"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D66" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="73" t="s">
-        <v>127</v>
+      <c r="B66" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="70" t="s">
+        <v>147</v>
       </c>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="60"/>
+      <c r="H66" s="57"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="B67" s="27"/>
-      <c r="C67" s="29"/>
+      <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
-      <c r="H67" s="60"/>
+      <c r="H67" s="57"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D68" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="76" t="s">
-        <v>128</v>
+      <c r="B68" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="73" t="s">
+        <v>151</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
-      <c r="H68" s="60"/>
+      <c r="H68" s="57"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="B69" s="29"/>
@@ -2205,7 +2270,7 @@
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
-      <c r="H69" s="60"/>
+      <c r="H69" s="57"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="B70" s="27"/>
@@ -2214,104 +2279,104 @@
       <c r="E70" s="27"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
-      <c r="H70" s="60"/>
+      <c r="H70" s="57"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="D71" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="E71" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="F71" s="66">
+      <c r="B71" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="F71" s="63">
         <v>45597.0</v>
       </c>
-      <c r="G71" s="78">
+      <c r="G71" s="75">
         <v>45604.0</v>
       </c>
-      <c r="H71" s="60"/>
+      <c r="H71" s="57"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="D72" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="E72" s="80" t="s">
+      <c r="B72" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="66">
+      <c r="F72" s="63">
         <v>45597.0</v>
       </c>
-      <c r="G72" s="66">
+      <c r="G72" s="63">
         <v>45604.0</v>
       </c>
-      <c r="H72" s="60"/>
+      <c r="H72" s="57"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="62" t="s">
+      <c r="B73" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="C73" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="D73" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="E73" s="80" t="s">
+      <c r="C73" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="F73" s="66">
+      <c r="F73" s="63">
         <v>45604.0</v>
       </c>
-      <c r="G73" s="66">
+      <c r="G73" s="63">
         <v>45607.0</v>
       </c>
-      <c r="H73" s="60"/>
+      <c r="H73" s="57"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="C74" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="D74" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="E74" s="82" t="s">
+      <c r="B74" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F74" s="83">
+      <c r="F74" s="80">
         <v>45607.0</v>
       </c>
-      <c r="G74" s="83">
+      <c r="G74" s="80">
         <v>45610.0</v>
       </c>
-      <c r="H74" s="84"/>
+      <c r="H74" s="81"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="C75" s="85">
+      <c r="B75" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="82">
         <v>45610.0</v>
       </c>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="46"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" ht="15.75" customHeight="1"/>
     <row r="77" ht="15.75" customHeight="1"/>
@@ -3299,27 +3364,25 @@
     <mergeCell ref="G42:G44"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D49:D50"/>
     <mergeCell ref="E66:E67"/>
     <mergeCell ref="D68:D70"/>
     <mergeCell ref="E68:E70"/>
-    <mergeCell ref="D57:D59"/>
     <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
     <mergeCell ref="F60:F70"/>
     <mergeCell ref="G60:G70"/>
     <mergeCell ref="E63:E65"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D57:D59"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="C48:H48"/>
-    <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F59"/>
     <mergeCell ref="G49:G59"/>
+    <mergeCell ref="D53:D56"/>
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="B68:B70"/>
@@ -3335,6 +3398,8 @@
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G2"/>

--- a/Línea Base/PVCU/Linea_Base_1/Gestion/PVCU-CP.xlsx
+++ b/Línea Base/PVCU/Linea_Base_1/Gestion/PVCU-CP.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Q58Mi61LQ+l2xyxF2YvHuz42grRfa5ew1JugJJvf2+Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="szrDn9XXQUG1VJAKYWsEdd8KmTb+hOUxafN/qPTNis8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="162">
   <si>
     <t>Cronograma del proyecto</t>
   </si>
@@ -324,13 +324,16 @@
     <t>PVCU-DAS.docx</t>
   </si>
   <si>
-    <t>Elaboracion del Modelado de Clases</t>
-  </si>
-  <si>
-    <t>Documento del Modelado de Clases</t>
-  </si>
-  <si>
-    <t>PVCU-DMC.docx</t>
+    <t>Diseño de Interfaz de Usuario (UI)</t>
+  </si>
+  <si>
+    <t>Documento de la User Interface</t>
+  </si>
+  <si>
+    <t>PVCU-DUI.docx</t>
+  </si>
+  <si>
+    <t>Patricio / Diseñador UI</t>
   </si>
   <si>
     <t>Elaboracion de Modelado de Base de Datos</t>
@@ -340,18 +343,6 @@
   </si>
   <si>
     <t>PVCU-DMBD.docx</t>
-  </si>
-  <si>
-    <t>Diseño de Interfaz de Usuario (UI)</t>
-  </si>
-  <si>
-    <t>Documento de la User Interface</t>
-  </si>
-  <si>
-    <t>PVCU-DUI.docx</t>
-  </si>
-  <si>
-    <t>Patricio / Diseñador UI</t>
   </si>
   <si>
     <t>Elaboración de la Guía de Estilos</t>
@@ -756,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="80">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -865,7 +856,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -885,33 +876,29 @@
     <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -922,9 +909,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -947,13 +931,13 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1828,7 +1812,9 @@
       <c r="G38" s="38">
         <v>45555.0</v>
       </c>
-      <c r="H38" s="39"/>
+      <c r="H38" s="39">
+        <v>100.0</v>
+      </c>
       <c r="I38" s="40"/>
     </row>
     <row r="39">
@@ -1882,207 +1868,207 @@
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
-      <c r="H41" s="48"/>
+      <c r="H41" s="19">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="52">
+      <c r="E42" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="26">
         <v>45549.0</v>
       </c>
-      <c r="G42" s="52">
+      <c r="G42" s="26">
         <v>45563.0</v>
       </c>
-      <c r="H42" s="53"/>
+      <c r="H42" s="19">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="49">
+        <v>45549.0</v>
+      </c>
+      <c r="G43" s="49">
+        <v>45570.0</v>
+      </c>
+      <c r="H43" s="50"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="53"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="53"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="54" t="s">
+      <c r="F44" s="49">
+        <v>45563.0</v>
+      </c>
+      <c r="G44" s="49">
+        <v>45570.0</v>
+      </c>
+      <c r="H44" s="50"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="B45" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="D45" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="E45" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="55">
+        <v>45570.0</v>
+      </c>
+      <c r="G45" s="55">
+        <v>45577.0</v>
+      </c>
+      <c r="H45" s="56"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="B46" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" s="56">
-        <v>45563.0</v>
-      </c>
-      <c r="G45" s="56">
+      <c r="D46" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="56"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="B47" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="62">
+        <v>45577.0</v>
+      </c>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="64"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="B48" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="68">
         <v>45570.0</v>
       </c>
-      <c r="H45" s="57"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="57"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="63">
-        <v>45570.0</v>
-      </c>
-      <c r="G47" s="63">
-        <v>45577.0</v>
-      </c>
-      <c r="H47" s="57"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="65">
-        <v>45577.0</v>
-      </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="67"/>
+      <c r="G48" s="55">
+        <v>45590.0</v>
+      </c>
+      <c r="H48" s="56"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="69" t="s">
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="56"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="B50" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="69" t="s">
+      <c r="C50" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="70" t="s">
+      <c r="D50" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="F49" s="71">
-        <v>45570.0</v>
-      </c>
-      <c r="G49" s="72">
-        <v>45590.0</v>
-      </c>
-      <c r="H49" s="57"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
+      <c r="E50" s="67" t="s">
+        <v>124</v>
+      </c>
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
-      <c r="H50" s="57"/>
+      <c r="H50" s="56"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D51" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="70" t="s">
-        <v>127</v>
-      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
-      <c r="H51" s="57"/>
+      <c r="H51" s="56"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
+      <c r="B52" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="67" t="s">
+        <v>128</v>
+      </c>
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
-      <c r="H52" s="57"/>
+      <c r="H52" s="56"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" s="70" t="s">
-        <v>131</v>
-      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
-      <c r="H53" s="57"/>
+      <c r="H53" s="56"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="B54" s="29"/>
@@ -2091,293 +2077,285 @@
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="57"/>
+      <c r="H54" s="56"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
-      <c r="H55" s="57"/>
+      <c r="H55" s="56"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
+      <c r="B56" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="69" t="s">
+        <v>132</v>
+      </c>
       <c r="F56" s="29"/>
       <c r="G56" s="29"/>
-      <c r="H56" s="57"/>
+      <c r="H56" s="56"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="73" t="s">
-        <v>135</v>
-      </c>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
       <c r="F57" s="29"/>
       <c r="G57" s="29"/>
-      <c r="H57" s="57"/>
+      <c r="H57" s="56"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="29"/>
       <c r="G58" s="29"/>
-      <c r="H58" s="57"/>
+      <c r="H58" s="56"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="57"/>
+      <c r="B59" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" s="68">
+        <v>45590.0</v>
+      </c>
+      <c r="G59" s="55">
+        <v>45604.0</v>
+      </c>
+      <c r="H59" s="56"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="71">
-        <v>45590.0</v>
-      </c>
-      <c r="G60" s="72">
-        <v>45604.0</v>
-      </c>
-      <c r="H60" s="57"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="56"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="57"/>
+      <c r="H61" s="56"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
+      <c r="B62" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="67" t="s">
+        <v>140</v>
+      </c>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
-      <c r="H62" s="57"/>
+      <c r="H62" s="56"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="E63" s="70" t="s">
-        <v>143</v>
-      </c>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
-      <c r="H63" s="57"/>
+      <c r="H63" s="56"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
-      <c r="H64" s="57"/>
+      <c r="H64" s="56"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
+      <c r="B65" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="67" t="s">
+        <v>144</v>
+      </c>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
-      <c r="H65" s="57"/>
+      <c r="H65" s="56"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="E66" s="70" t="s">
-        <v>147</v>
-      </c>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="57"/>
+      <c r="H66" s="56"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
+      <c r="B67" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" s="69" t="s">
+        <v>148</v>
+      </c>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
-      <c r="H67" s="57"/>
+      <c r="H67" s="56"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" s="73" t="s">
-        <v>151</v>
-      </c>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
-      <c r="H68" s="57"/>
+      <c r="H68" s="56"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
-      <c r="H69" s="57"/>
+      <c r="H69" s="56"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="57"/>
+      <c r="B70" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" s="71">
+        <v>45597.0</v>
+      </c>
+      <c r="G70" s="72">
+        <v>45604.0</v>
+      </c>
+      <c r="H70" s="56"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="C71" s="54" t="s">
+      <c r="B71" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="D71" s="74" t="s">
+      <c r="C71" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="E71" s="54" t="s">
+      <c r="D71" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="F71" s="63">
+      <c r="E71" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="71">
         <v>45597.0</v>
       </c>
-      <c r="G71" s="75">
+      <c r="G71" s="71">
         <v>45604.0</v>
       </c>
-      <c r="H71" s="57"/>
+      <c r="H71" s="56"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="C72" s="60" t="s">
+      <c r="D72" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="D72" s="76" t="s">
+      <c r="E72" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="71">
+        <v>45604.0</v>
+      </c>
+      <c r="G72" s="71">
+        <v>45607.0</v>
+      </c>
+      <c r="H72" s="56"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="B73" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="E72" s="77" t="s">
+      <c r="C73" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="63">
-        <v>45597.0</v>
-      </c>
-      <c r="G72" s="63">
-        <v>45604.0</v>
-      </c>
-      <c r="H72" s="57"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="E73" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" s="63">
-        <v>45604.0</v>
-      </c>
-      <c r="G73" s="63">
+      <c r="F73" s="77">
         <v>45607.0</v>
       </c>
-      <c r="H73" s="57"/>
+      <c r="G73" s="77">
+        <v>45610.0</v>
+      </c>
+      <c r="H73" s="78"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="78" t="s">
+      <c r="B74" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="C74" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="E74" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="80">
-        <v>45607.0</v>
-      </c>
-      <c r="G74" s="80">
+      <c r="C74" s="79">
         <v>45610.0</v>
       </c>
-      <c r="H74" s="81"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C75" s="82">
-        <v>45610.0</v>
-      </c>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
-    </row>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="44"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1"/>
     <row r="76" ht="15.75" customHeight="1"/>
     <row r="77" ht="15.75" customHeight="1"/>
     <row r="78" ht="15.75" customHeight="1"/>
@@ -3322,9 +3300,8 @@
     <row r="1017" ht="15.75" customHeight="1"/>
     <row r="1018" ht="15.75" customHeight="1"/>
     <row r="1019" ht="15.75" customHeight="1"/>
-    <row r="1020" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="73">
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="F15:F36"/>
@@ -3346,8 +3323,8 @@
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="E19:E25"/>
@@ -3360,46 +3337,44 @@
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F70"/>
-    <mergeCell ref="G60:G70"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D48:D49"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F59"/>
-    <mergeCell ref="G49:G59"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F59:F69"/>
+    <mergeCell ref="G59:G69"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F58"/>
+    <mergeCell ref="G48:G58"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G2"/>

--- a/Línea Base/PVCU/Linea_Base_1/Gestion/PVCU-CP.xlsx
+++ b/Línea Base/PVCU/Linea_Base_1/Gestion/PVCU-CP.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="szrDn9XXQUG1VJAKYWsEdd8KmTb+hOUxafN/qPTNis8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Q58Mi61LQ+l2xyxF2YvHuz42grRfa5ew1JugJJvf2+Q="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="156">
   <si>
     <t>Cronograma del proyecto</t>
   </si>
@@ -375,7 +375,8 @@
     <t>Épica 1</t>
   </si>
   <si>
-    <t>//E1</t>
+    <t>//Frontend
+//Backend</t>
   </si>
   <si>
     <t>Jara/ Programador Frontend                      Madrid/ Programador Backend</t>
@@ -387,7 +388,8 @@
     <t>Épica 2</t>
   </si>
   <si>
-    <t>//E2</t>
+    <t>//Frontend
+//Backend</t>
   </si>
   <si>
     <t>Patricio/ Programador Frontend                Espinoza/ Programador Backend</t>
@@ -399,9 +401,6 @@
     <t>Épica 3</t>
   </si>
   <si>
-    <t>//E3</t>
-  </si>
-  <si>
     <t>Dávila/ Programador Frontend                  Madrid/ Programador Backend</t>
   </si>
   <si>
@@ -411,9 +410,6 @@
     <t>Épica 4</t>
   </si>
   <si>
-    <t>//E4</t>
-  </si>
-  <si>
     <t>Mantilla/ Progrmador Frontend                Espinoza/ Programador Backend</t>
   </si>
   <si>
@@ -423,9 +419,6 @@
     <t>Épica 5</t>
   </si>
   <si>
-    <t>//E5</t>
-  </si>
-  <si>
     <t>Jara/ Programador Frontend                      Espinoza/ Programador Backend</t>
   </si>
   <si>
@@ -435,9 +428,6 @@
     <t>Épica 6</t>
   </si>
   <si>
-    <t>//E6</t>
-  </si>
-  <si>
     <t>Patricio/ Programador Frontend                Madrid/ Programador Backend</t>
   </si>
   <si>
@@ -447,22 +437,16 @@
     <t>Épica 7</t>
   </si>
   <si>
-    <t>//E7</t>
+    <t>Mantilla/ Progrmador Frontend                Madrid/ Programador Backend</t>
+  </si>
+  <si>
+    <t>Desarrollo de Épica 8</t>
+  </si>
+  <si>
+    <t>Épica 8</t>
   </si>
   <si>
     <t>Dávila/ Programador Frontend                 Espinoza/ Programador Backend</t>
-  </si>
-  <si>
-    <t>Desarrollo de Épica 8</t>
-  </si>
-  <si>
-    <t>Épica 8</t>
-  </si>
-  <si>
-    <t>//E8</t>
-  </si>
-  <si>
-    <t>Mantilla/ Progrmador Frontend                Madrid/ Programador Backend</t>
   </si>
   <si>
     <t>Realizar Pruebas de Software</t>
@@ -570,7 +554,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,12 +571,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
         <bgColor rgb="FF999999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -747,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -867,25 +845,37 @@
     </xf>
     <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -908,7 +898,7 @@
     <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -919,7 +909,7 @@
     </xf>
     <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -946,13 +936,10 @@
     <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1834,180 +1821,174 @@
       <c r="B40" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="48">
         <v>45549.0</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="48">
         <v>45556.0</v>
       </c>
-      <c r="H40" s="16">
-        <v>100.0</v>
-      </c>
+      <c r="H40" s="49"/>
     </row>
     <row r="41">
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="51" t="s">
         <v>72</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
-      <c r="H41" s="19">
-        <v>100.0</v>
-      </c>
+      <c r="H41" s="53"/>
     </row>
     <row r="42">
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F42" s="54">
         <v>45549.0</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="54">
         <v>45563.0</v>
       </c>
-      <c r="H42" s="19">
-        <v>100.0</v>
-      </c>
+      <c r="H42" s="53"/>
     </row>
     <row r="43">
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="48" t="s">
+      <c r="E43" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F43" s="49">
+      <c r="F43" s="54">
         <v>45549.0</v>
       </c>
-      <c r="G43" s="49">
+      <c r="G43" s="54">
         <v>45570.0</v>
       </c>
-      <c r="H43" s="50"/>
+      <c r="H43" s="55"/>
     </row>
     <row r="44">
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E44" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="49">
+      <c r="F44" s="54">
         <v>45563.0</v>
       </c>
-      <c r="G44" s="49">
+      <c r="G44" s="54">
         <v>45570.0</v>
       </c>
-      <c r="H44" s="50"/>
+      <c r="H44" s="53"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="D45" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="55">
+      <c r="F45" s="59">
         <v>45570.0</v>
       </c>
-      <c r="G45" s="55">
+      <c r="G45" s="59">
         <v>45577.0</v>
       </c>
-      <c r="H45" s="56"/>
+      <c r="H45" s="60"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="64" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
-      <c r="H46" s="56"/>
+      <c r="H46" s="60"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="62">
+      <c r="C47" s="66">
         <v>45577.0</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="64"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="68"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="66" t="s">
+      <c r="D48" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="67" t="s">
+      <c r="E48" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="68">
+      <c r="F48" s="72">
         <v>45570.0</v>
       </c>
-      <c r="G48" s="55">
+      <c r="G48" s="59">
         <v>45590.0</v>
       </c>
-      <c r="H48" s="56"/>
+      <c r="H48" s="60"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="B49" s="27"/>
@@ -2016,24 +1997,24 @@
       <c r="E49" s="27"/>
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
-      <c r="H49" s="56"/>
+      <c r="H49" s="60"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="66" t="s">
+      <c r="D50" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="67" t="s">
+      <c r="E50" s="71" t="s">
         <v>124</v>
       </c>
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
-      <c r="H50" s="56"/>
+      <c r="H50" s="60"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="B51" s="27"/>
@@ -2042,24 +2023,24 @@
       <c r="E51" s="27"/>
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
-      <c r="H51" s="56"/>
+      <c r="H51" s="60"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="66" t="s">
+      <c r="D52" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="71" t="s">
         <v>127</v>
-      </c>
-      <c r="E52" s="67" t="s">
-        <v>128</v>
       </c>
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
-      <c r="H52" s="56"/>
+      <c r="H52" s="60"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="B53" s="29"/>
@@ -2068,42 +2049,42 @@
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
-      <c r="H53" s="56"/>
+      <c r="H53" s="60"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="56"/>
+      <c r="H54" s="60"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
+      <c r="B55" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="73" t="s">
+        <v>130</v>
+      </c>
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
-      <c r="H55" s="56"/>
+      <c r="H55" s="60"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="D56" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" s="69" t="s">
-        <v>132</v>
-      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
       <c r="F56" s="29"/>
       <c r="G56" s="29"/>
-      <c r="H56" s="56"/>
+      <c r="H56" s="60"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="B57" s="29"/>
@@ -2112,250 +2093,258 @@
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
       <c r="G57" s="29"/>
-      <c r="H57" s="56"/>
+      <c r="H57" s="60"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
       <c r="F58" s="29"/>
       <c r="G58" s="29"/>
-      <c r="H58" s="56"/>
+      <c r="H58" s="60"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="60"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="B60" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="F59" s="68">
+      <c r="F60" s="72">
         <v>45590.0</v>
       </c>
-      <c r="G59" s="55">
+      <c r="G60" s="59">
         <v>45604.0</v>
       </c>
-      <c r="H59" s="56"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="56"/>
+      <c r="H60" s="60"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="56"/>
+      <c r="H61" s="60"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="D62" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="67" t="s">
-        <v>140</v>
-      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
-      <c r="H62" s="56"/>
+      <c r="H62" s="60"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
+      <c r="B63" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="71" t="s">
+        <v>136</v>
+      </c>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
-      <c r="H63" s="56"/>
+      <c r="H63" s="60"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
-      <c r="H64" s="56"/>
+      <c r="H64" s="60"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="D65" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" s="67" t="s">
-        <v>144</v>
-      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
-      <c r="H65" s="56"/>
+      <c r="H65" s="60"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
+      <c r="B66" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="71" t="s">
+        <v>139</v>
+      </c>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="56"/>
+      <c r="H66" s="60"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="69" t="s">
-        <v>148</v>
-      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
-      <c r="H67" s="56"/>
+      <c r="H67" s="60"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
+      <c r="B68" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="73" t="s">
+        <v>142</v>
+      </c>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
-      <c r="H68" s="56"/>
+      <c r="H68" s="60"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
-      <c r="H69" s="56"/>
+      <c r="H69" s="60"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="54" t="s">
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="60"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="B71" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" s="75">
+        <v>45597.0</v>
+      </c>
+      <c r="G71" s="76">
+        <v>45604.0</v>
+      </c>
+      <c r="H71" s="60"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="B72" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="C70" s="54" t="s">
+      <c r="E72" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="75">
+        <v>45597.0</v>
+      </c>
+      <c r="G72" s="75">
+        <v>45604.0</v>
+      </c>
+      <c r="H72" s="60"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="B73" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D70" s="70" t="s">
+      <c r="D73" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="E70" s="54" t="s">
+      <c r="E73" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="75">
+        <v>45604.0</v>
+      </c>
+      <c r="G73" s="75">
+        <v>45607.0</v>
+      </c>
+      <c r="H73" s="60"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="B74" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="F70" s="71">
-        <v>45597.0</v>
-      </c>
-      <c r="G70" s="72">
-        <v>45604.0</v>
-      </c>
-      <c r="H70" s="56"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="57" t="s">
+      <c r="C74" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="D74" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="D71" s="73" t="s">
+      <c r="E74" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="80">
+        <v>45607.0</v>
+      </c>
+      <c r="G74" s="80">
+        <v>45610.0</v>
+      </c>
+      <c r="H74" s="81"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="B75" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="E71" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="71">
-        <v>45597.0</v>
-      </c>
-      <c r="G71" s="71">
-        <v>45604.0</v>
-      </c>
-      <c r="H71" s="56"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="D72" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="E72" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="71">
-        <v>45604.0</v>
-      </c>
-      <c r="G72" s="71">
-        <v>45607.0</v>
-      </c>
-      <c r="H72" s="56"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="E73" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" s="77">
-        <v>45607.0</v>
-      </c>
-      <c r="G73" s="77">
+      <c r="C75" s="82">
         <v>45610.0</v>
       </c>
-      <c r="H73" s="78"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="C74" s="79">
-        <v>45610.0</v>
-      </c>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="44"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
+    </row>
     <row r="76" ht="15.75" customHeight="1"/>
     <row r="77" ht="15.75" customHeight="1"/>
     <row r="78" ht="15.75" customHeight="1"/>
@@ -3300,6 +3289,7 @@
     <row r="1017" ht="15.75" customHeight="1"/>
     <row r="1018" ht="15.75" customHeight="1"/>
     <row r="1019" ht="15.75" customHeight="1"/>
+    <row r="1020" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="73">
     <mergeCell ref="F4:H4"/>
@@ -3343,38 +3333,38 @@
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F69"/>
-    <mergeCell ref="G59:G69"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F70"/>
+    <mergeCell ref="G60:G70"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="E55:E59"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F58"/>
-    <mergeCell ref="G48:G58"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="F48:F59"/>
+    <mergeCell ref="G48:G59"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B59"/>
     <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G2"/>
